--- a/DataBase/进程调度信息.xlsx
+++ b/DataBase/进程调度信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11527\Desktop\Code\myProject\AnalogSystem\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11527\Desktop\Code\myProject\mfc\模拟操作系统\AnalogSystem\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB39A1-9F92-46B0-94D7-B722E0D3840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6743CE-3097-4F38-95F4-46C2482D23E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,10 +87,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -368,24 +374,24 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
